--- a/Docs/Liste de médicaments.xlsx
+++ b/Docs/Liste de médicaments.xlsx
@@ -231,30 +231,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Ebrima"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -399,6 +375,30 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Ebrima"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -410,17 +410,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E11"/>
   <sortState ref="A2:E11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Nom" dataDxfId="6"/>
-    <tableColumn id="2" name="Classification pharmaco thérapeutique VIDAL du médicament" dataDxfId="5"/>
-    <tableColumn id="3" name="Classification ATC du médicament" dataDxfId="4"/>
-    <tableColumn id="4" name="Excipients" dataDxfId="3"/>
-    <tableColumn id="5" name="Excipients à effet notoire" dataDxfId="2"/>
+    <tableColumn id="1" name="Nom" dataDxfId="4"/>
+    <tableColumn id="2" name="Classification pharmaco thérapeutique VIDAL du médicament" dataDxfId="3"/>
+    <tableColumn id="3" name="Classification ATC du médicament" dataDxfId="2"/>
+    <tableColumn id="4" name="Excipients" dataDxfId="1"/>
+    <tableColumn id="5" name="Excipients à effet notoire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,7 +722,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>

--- a/Docs/Liste de médicaments.xlsx
+++ b/Docs/Liste de médicaments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Nom</t>
   </si>
@@ -33,18 +33,6 @@
     <t>Excipients à effet notoire</t>
   </si>
   <si>
-    <t>Dermeol crème</t>
-  </si>
-  <si>
-    <t>Dermatologie (Protecteurs cutanés)</t>
-  </si>
-  <si>
-    <t>Médicaments dermatologiques – Antiprurigineux, incluant antihistamniques, anesthésuqyes, etc: antiprurigineux incluant antihistamniques, anesthesiques, etc (autres antiprurigineux)</t>
-  </si>
-  <si>
-    <t>Vanille parfum, eau purifiée, acide stéarique, éther monoéthylique, thiéthyke citrate, éthylvanille, vanille extrait alcoolique, olive huile, éthanolamique, pipéronal, paraffine liquide, éthylène glycol, trolamine, glycol P stéarate</t>
-  </si>
-  <si>
     <t>Josacine  125mg/ 5ml glé p susp buv</t>
   </si>
   <si>
@@ -90,21 +78,6 @@
     <t>Jaune orangé S laque aluminique</t>
   </si>
   <si>
-    <t>Prograf 0.5 mg gél</t>
-  </si>
-  <si>
-    <t>Immunologie – Transplantation – Immunosuppresseurs sélectifs: Inhibiteurs des cytokines (Tacrolimus)</t>
-  </si>
-  <si>
-    <t>Antineoplasiques et immunomodulateurs: immunosuppresseurs – immunosuppresseurs – immunosuppresseurs: inhibiteurs de la calcineurine (tacrolimus)</t>
-  </si>
-  <si>
-    <t>Gélatine, titane dioxyde, fer rouge oxyde, fer jaune oxyde, encre pour impression, magnésium stéarate, croscarmellose sel de Na, hypromellose, hyprolose, siméticone, gomme laque</t>
-  </si>
-  <si>
-    <t>Lactose monohydrate, soja lécithine</t>
-  </si>
-  <si>
     <t>Zolmitriptan Evolugen 2.5 mg cp pellic</t>
   </si>
   <si>
@@ -118,34 +91,6 @@
   </si>
   <si>
     <t>Sorbitol, glucose, lactose anhydre, polydextrose</t>
-  </si>
-  <si>
-    <t>Wilzin 50 mg gél</t>
-  </si>
-  <si>
-    <t>Métabolisme – Diabète – Nutrition: Correction des anomalies métaboliques (Maladie de Wilson) Métabolisme – Diabète – Nutrition: Eléments minéraux (Zinc)</t>
-  </si>
-  <si>
-    <t>Voies digestives et métabolisme: autres médicaments des voies digestives et du métabolisme - autres médicaments des voies digestives et du métabolisme - autres médicaments des voies digestives et du métabolisme: divers médicaments des voies digestives et du métabolisme (zinc acetate)</t>
-  </si>
-  <si>
-    <t>gélatine, titane dioxyde, magnésium stéarate, gomme laque, amidon de maïs, fer noir oxyde</t>
-  </si>
-  <si>
-    <t>jauen orangé S</t>
-  </si>
-  <si>
-    <t>Amlor 10 mg gél</t>
-  </si>
-  <si>
-    <t>Cardiologie - Angéiologie: Antihypertenseurs - Inhibiteurs calciques: voie orale: Dihydropyridines (Amlodipine)
-Cardiologie - Angéiologie: Insuffisance coronarienne - Inhibiteurs calciques: voie orale: Dihydropyridines (Amlopidine)</t>
-  </si>
-  <si>
-    <t>Système cardiovasculaire: inhibiteurs calciques - inhibitteurs calciques sélectifs à effets vasculaires prédominants: derives de la dihydropyridine (Amlodipine)</t>
-  </si>
-  <si>
-    <t>amidon de maïs séché, gélatine, titane dioxyde, fer jaune oxyde, cellulose microcristalline, encre pour impression, magnésium stéarate, gomme laque, fer noir oxyde</t>
   </si>
   <si>
     <t>Cardiologie - Angéiologie - Antihypertenseurs: Antagonistes de l'angiotensine II (Temisartan)
@@ -183,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E7"/>
   <sortState ref="A2:E11">
     <sortCondition ref="A1:A11"/>
   </sortState>
@@ -713,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.44140625" bestFit="1" customWidth="1"/>
@@ -728,7 +673,7 @@
     <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -745,170 +690,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.25">
+    <row r="2" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="34.5">
+    <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="103.5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="69">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="69">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="86.25">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51.75">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="86.25">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="86.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -938,7 +819,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
